--- a/TeachersData.xlsx
+++ b/TeachersData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FET_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A8E72E-C2D4-4FAD-9645-C9C602F5E7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F30F56-F2E6-4CC9-A110-A63C01B8CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76FD409B-8B64-4EF0-AA49-E20B5E0FE01E}"/>
+    <workbookView xWindow="1605" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{76FD409B-8B64-4EF0-AA49-E20B5E0FE01E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Teacher Name</t>
   </si>
   <si>
-    <t>Subjects</t>
-  </si>
-  <si>
-    <t>Time Slots</t>
-  </si>
-  <si>
     <t>Alice Johnson</t>
   </si>
   <si>
@@ -59,30 +53,6 @@
     <t>David Green</t>
   </si>
   <si>
-    <t>Mathematics, Statistics</t>
-  </si>
-  <si>
-    <t>Computer Science, Data Science</t>
-  </si>
-  <si>
-    <t>Physics, Chemistry</t>
-  </si>
-  <si>
-    <t>English, History</t>
-  </si>
-  <si>
-    <t>Monday 08:00-10:00, Wednesday 13:00-15:00</t>
-  </si>
-  <si>
-    <t>Tuesday 09:00-12:00, Thursday 14:00-17:00</t>
-  </si>
-  <si>
-    <t>Monday 10:00-12:00, Friday 08:00-11:00</t>
-  </si>
-  <si>
-    <t>Wednesday 10:00-12:00, Thursday 09:00-11:00</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -99,9 +69,6 @@
   </si>
   <si>
     <t>david.green@example.com</t>
-  </si>
-  <si>
-    <t>"123456"</t>
   </si>
 </sst>
 </file>
@@ -148,10 +115,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,112 +452,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F20C37A-B4E7-4B45-8E24-0E7A0F034C0F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="2">
         <v>654321</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="2">
         <v>789012</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="2">
         <v>213545</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{A018BC73-B74D-4E31-9991-C0A9954FEE2D}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{C5D321A7-E2F5-457F-9EDD-F82125D84F5D}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{8BE95B81-F46C-42C3-9067-E98155133ABA}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{F523F10E-E786-4BF2-B59B-7D4E78324C5C}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A018BC73-B74D-4E31-9991-C0A9954FEE2D}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{C5D321A7-E2F5-457F-9EDD-F82125D84F5D}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{8BE95B81-F46C-42C3-9067-E98155133ABA}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{F523F10E-E786-4BF2-B59B-7D4E78324C5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
